--- a/urls/Login.xlsx
+++ b/urls/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16185" windowHeight="7905"/>
+    <workbookView windowWidth="25200" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
   <si>
     <t>UserName</t>
   </si>
@@ -40,16 +40,37 @@
   <si>
     <t>bothwrong</t>
   </si>
+  <si>
+    <t>Status on 2020/03/09 15:43:18</t>
+  </si>
+  <si>
+    <t>Status on 2020/03/09 15:48:44</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Status on 2020/03/09 15:52:47</t>
+  </si>
+  <si>
+    <t>Status on 2020/03/09 15:55:34</t>
+  </si>
+  <si>
+    <t>Status on 2020/03/09 15:56:18</t>
+  </si>
+  <si>
+    <t>Status on 2020/03/14 12:45:12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -82,6 +103,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -91,14 +147,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -106,61 +154,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,43 +204,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,67 +248,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,115 +416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,16 +467,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,17 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,26 +511,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,7 +557,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,141 +575,149 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,88 +1037,738 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:BE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.8571428571429" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.8571428571429" collapsed="true"/>
+    <col min="3" max="6" customWidth="true" width="6.59047619047619" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="28.8857142857143" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="28.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="BA1" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="BB1" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="BC1" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="BD1" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="BE1" t="s" s="12">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:51">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="BA2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:51">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="BA3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:51">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="BA4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" ht="30" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="30" spans="1:51">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="BA5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:51">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="BA6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:51">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="BA7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:51">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="BA8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:51">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="BA9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:51">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="BA10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
